--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\new project\Stark_Industries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A1D887-2E7E-4A5F-BD9B-2F09EA7E41DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -95,20 +101,26 @@
   </si>
   <si>
     <t>Question7</t>
+  </si>
+  <si>
+    <t>Parent_1</t>
+  </si>
+  <si>
+    <t>Parent_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,7 +128,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,18 +168,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +267,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +319,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +512,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +583,14 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -553,7 +637,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -600,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -644,7 +728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -654,5 +738,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\new project\Stark_Industries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotem\Documents\לימודים\שנה ב\Stark_Industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A1D887-2E7E-4A5F-BD9B-2F09EA7E41DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37765D6-30A8-4B55-B401-C3A25369696F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,7 +128,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -515,32 +515,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -636,8 +636,11 @@
       <c r="O2">
         <v>80</v>
       </c>
+      <c r="P2">
+        <v>123456798</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -684,7 +687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -728,7 +731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\new project\Stark_Industries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliormor/Desktop/Joy/Stark_Industries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A1D887-2E7E-4A5F-BD9B-2F09EA7E41DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AFCCAB-F3BE-464A-84B4-278397D6D369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -64,7 +73,7 @@
     <t>Last grade</t>
   </si>
   <si>
-    <t>NaN</t>
+    <t>Parent</t>
   </si>
   <si>
     <t>25/12/2019</t>
@@ -73,40 +82,37 @@
     <t>Question1</t>
   </si>
   <si>
+    <t>Answer1</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Answer3</t>
+  </si>
+  <si>
+    <t>Question15</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
+    <t>Answer2</t>
+  </si>
+  <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>ddsd</t>
+  </si>
+  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>Answer1</t>
-  </si>
-  <si>
-    <t>Question2</t>
-  </si>
-  <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Answer3</t>
-  </si>
-  <si>
-    <t>Question15</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Question5</t>
-  </si>
-  <si>
-    <t>Answer2</t>
-  </si>
-  <si>
-    <t>Question7</t>
-  </si>
-  <si>
-    <t>Parent_1</t>
-  </si>
-  <si>
-    <t>Parent_2</t>
   </si>
 </sst>
 </file>
@@ -168,13 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,34 +518,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,161 +572,181 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>28</v>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>123456789</v>
       </c>
-      <c r="C2" s="2">
+      <c r="F2" s="2">
         <v>43816</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2">
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2">
         <v>80</v>
       </c>
+      <c r="S2">
+        <v>987654321</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>23456</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>555555555</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>333456</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="E4">
+        <v>333456</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
-        <v>18</v>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>3333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>88774</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliormor/Desktop/Joy/Stark_Industries/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AFCCAB-F3BE-464A-84B4-278397D6D369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -31,6 +25,9 @@
     <t>Unnamed: 0.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
     <t>Question1</t>
   </si>
   <si>
+    <t>ddsd</t>
+  </si>
+  <si>
     <t>Answer1</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>Answer3</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>Question15</t>
   </si>
   <si>
@@ -107,26 +110,20 @@
   </si>
   <si>
     <t>Question7</t>
-  </si>
-  <si>
-    <t>ddsd</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +131,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -186,19 +183,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,27 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,24 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,19 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +532,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -599,19 +550,19 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>123456789</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>43816</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -620,31 +571,34 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
         <v>80</v>
       </c>
-      <c r="S2">
-        <v>987654321</v>
+      <c r="T2">
+        <v>111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -658,22 +612,25 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>23456</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3">
         <v>555555555</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -687,16 +644,16 @@
         <v>2</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>333456</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
         <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -705,31 +662,34 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4">
         <v>3333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -743,6 +703,9 @@
         <v>3</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>88774</v>
       </c>
     </row>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>ID</t>
@@ -471,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +544,17 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -553,84 +571,102 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>123456789</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>43816</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2">
+        <v>80</v>
+      </c>
+      <c r="W2">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>23456</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>80</v>
-      </c>
-      <c r="T2">
-        <v>111111111</v>
+      <c r="W3">
+        <v>555555555</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>23456</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3">
-        <v>555555555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -647,49 +683,58 @@
         <v>2</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>333456</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
-        <v>24</v>
+      <c r="K4">
+        <v>2</v>
       </c>
       <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4">
         <v>3333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -706,6 +751,15 @@
         <v>3</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>88774</v>
       </c>
     </row>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -35,6 +35,51 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>ID</t>
@@ -480,13 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +598,53 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -580,52 +670,97 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>123456789</v>
       </c>
-      <c r="J2" s="2">
+      <c r="Y2" s="2">
         <v>43816</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2">
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2">
         <v>80</v>
       </c>
-      <c r="W2">
-        <v>987654321</v>
+      <c r="AL2">
+        <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:38">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -651,22 +786,67 @@
         <v>1</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>23456</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL3">
         <v>555555555</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:38">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -692,49 +872,94 @@
         <v>2</v>
       </c>
       <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
         <v>333456</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4">
+      <c r="Y4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL4">
         <v>3333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -760,6 +985,51 @@
         <v>3</v>
       </c>
       <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
         <v>88774</v>
       </c>
     </row>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotem\Documents\לימודים\שנה ב\Stark_Industries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75031AC7-BC5A-4B7E-8BE4-2E6AB4A46DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
   <si>
     <t>Index</t>
   </si>
@@ -70,6 +79,9 @@
     <t>Parent_1</t>
   </si>
   <si>
+    <t>Parent</t>
+  </si>
+  <si>
     <t>25/12/2019</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
   </si>
   <si>
     <t>Question2</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>Answer1</t>
@@ -133,11 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,26 +195,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -255,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,27 +284,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,24 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,254 +493,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:23">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>123456789</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43816</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>333456</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+      <c r="J2">
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>8415</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2">
-        <v>80</v>
-      </c>
-      <c r="P2">
-        <v>5252</v>
+      <c r="J4">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>23456</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>333456</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8415</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
+      <c r="J5">
         <v>2</v>
       </c>
     </row>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliormor/Desktop/Joy/Stark_Industries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED0DEAC-8EBA-784E-A307-E6195D019DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -74,9 +80,6 @@
   </si>
   <si>
     <t>Last grade</t>
-  </si>
-  <si>
-    <t>Parent_1</t>
   </si>
   <si>
     <t>Parent</t>
@@ -142,12 +145,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,11 +209,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -252,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +295,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +347,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,14 +540,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="300" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,11 +613,9 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -594,49 +641,49 @@
         <v>333456</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -662,49 +709,49 @@
         <v>8415</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
       <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
         <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
       </c>
       <c r="V3">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -730,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -762,7 +809,7 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>2</v>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\update project\Stark_Industries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E2DEEE-C030-438A-B7B0-53D683B1BCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Index</t>
   </si>
@@ -76,78 +67,96 @@
     <t>Last grade</t>
   </si>
   <si>
-    <t>Parent_1</t>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Answer3</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Answer1</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Answer2</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>25/12/2019</t>
+  </si>
+  <si>
+    <t>Question15</t>
+  </si>
+  <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>Tue Jan 14 18:25:14 2020</t>
+  </si>
+  <si>
+    <t>Answer4</t>
+  </si>
+  <si>
+    <t>Question16</t>
+  </si>
+  <si>
+    <t>Question6</t>
+  </si>
+  <si>
+    <t>Question8</t>
+  </si>
+  <si>
+    <t>Tue Jan 14 18:34:44 2020</t>
+  </si>
+  <si>
+    <t>Question13</t>
+  </si>
+  <si>
+    <t>Question11</t>
+  </si>
+  <si>
+    <t>Tue Jan 14 18:32:58 2020</t>
+  </si>
+  <si>
+    <t>Question9</t>
+  </si>
+  <si>
+    <t>Question10</t>
   </si>
   <si>
     <t>Parent</t>
-  </si>
-  <si>
-    <t>25/12/2019</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:25:14 2020</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:34:44 2020</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:32:58 2020</t>
-  </si>
-  <si>
-    <t>Question1</t>
-  </si>
-  <si>
-    <t>Question2</t>
-  </si>
-  <si>
-    <t>Answer1</t>
-  </si>
-  <si>
-    <t>Answer2</t>
-  </si>
-  <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Answer3</t>
-  </si>
-  <si>
-    <t>Answer4</t>
-  </si>
-  <si>
-    <t>Question15</t>
-  </si>
-  <si>
-    <t>Question16</t>
-  </si>
-  <si>
-    <t>Question5</t>
-  </si>
-  <si>
-    <t>Question6</t>
-  </si>
-  <si>
-    <t>Question7</t>
-  </si>
-  <si>
-    <t>Question8</t>
-  </si>
-  <si>
-    <t>jh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -195,17 +204,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,282 +548,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43816</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>333456</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>80</v>
+      </c>
+      <c r="P2">
+        <v>5252</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>23456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>8415</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3">
-        <v>154</v>
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>333456</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
+        <v>8415</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5">
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
         <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliormor/Desktop/Joy/Stark_Industries/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED0DEAC-8EBA-784E-A307-E6195D019DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,6 +31,9 @@
     <t>Unnamed: 0.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -94,7 +91,7 @@
     <t>Tue Jan 14 18:34:44 2020</t>
   </si>
   <si>
-    <t>Tue Jan 14 18:32:58 2020</t>
+    <t>NaN</t>
   </si>
   <si>
     <t>Question1</t>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Question16</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>Question5</t>
@@ -145,12 +145,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -209,19 +209,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,27 +287,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,24 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,16 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="300" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,9 +567,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -623,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -638,52 +594,55 @@
         <v>2</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>333456</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -691,13 +650,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -706,52 +665,55 @@
         <v>3</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
         <v>8415</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
         <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3">
+        <v>29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -759,13 +721,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -774,16 +736,19 @@
         <v>4</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -791,13 +756,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -806,13 +771,49 @@
         <v>5</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\update project\Stark_Industries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotem\Documents\לימודים\שנה ב\Stark_Industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E2DEEE-C030-438A-B7B0-53D683B1BCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD6E233-1A20-40ED-B63D-EE25346CE69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Index</t>
   </si>
@@ -67,82 +67,79 @@
     <t>Last grade</t>
   </si>
   <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>25/12/2019</t>
+  </si>
+  <si>
+    <t>Tue Jan 14 18:25:14 2020</t>
+  </si>
+  <si>
+    <t>Tue Jan 14 18:34:44 2020</t>
+  </si>
+  <si>
+    <t>Tue Jan 14 18:32:58 2020</t>
+  </si>
+  <si>
     <t>Question1</t>
   </si>
   <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>Question8</t>
+  </si>
+  <si>
     <t>s</t>
   </si>
   <si>
-    <t>Question2</t>
+    <t>Answer1</t>
+  </si>
+  <si>
+    <t>Answer2</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question4</t>
   </si>
   <si>
     <t>Answer3</t>
   </si>
   <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Answer1</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Answer2</t>
+    <t>Answer4</t>
+  </si>
+  <si>
+    <t>Question15</t>
+  </si>
+  <si>
+    <t>Question16</t>
+  </si>
+  <si>
+    <t>Question13</t>
+  </si>
+  <si>
+    <t>Question9</t>
   </si>
   <si>
     <t>Question5</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>25/12/2019</t>
-  </si>
-  <si>
-    <t>Question15</t>
-  </si>
-  <si>
-    <t>Question7</t>
+    <t>Question6</t>
+  </si>
+  <si>
+    <t>Question11</t>
+  </si>
+  <si>
+    <t>Question10</t>
   </si>
   <si>
     <t>jh</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:25:14 2020</t>
-  </si>
-  <si>
-    <t>Answer4</t>
-  </si>
-  <si>
-    <t>Question16</t>
-  </si>
-  <si>
-    <t>Question6</t>
-  </si>
-  <si>
-    <t>Question8</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:34:44 2020</t>
-  </si>
-  <si>
-    <t>Question13</t>
-  </si>
-  <si>
-    <t>Question11</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:32:58 2020</t>
-  </si>
-  <si>
-    <t>Question9</t>
-  </si>
-  <si>
-    <t>Question10</t>
-  </si>
-  <si>
-    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +161,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,13 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,35 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -622,13 +599,12 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="3"/>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -641,34 +617,34 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>80</v>
@@ -677,157 +653,121 @@
         <v>5252</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>23456</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
       <c r="P3">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>333456</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="P4">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>8415</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="P5">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -835,43 +775,31 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
+      <c r="P6">
+        <v>111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -879,44 +807,28 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -34,6 +34,21 @@
     <t>Unnamed: 0.1.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -85,58 +100,31 @@
     <t>25/12/2019</t>
   </si>
   <si>
-    <t>Tue Jan 14 18:25:14 2020</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:34:44 2020</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
     <t>Question1</t>
   </si>
   <si>
-    <t>Question2</t>
-  </si>
-  <si>
     <t>Answer1</t>
   </si>
   <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Answer3</t>
+  </si>
+  <si>
+    <t>Question15</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
     <t>Answer2</t>
   </si>
   <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Answer3</t>
-  </si>
-  <si>
-    <t>Answer4</t>
-  </si>
-  <si>
-    <t>Question15</t>
-  </si>
-  <si>
-    <t>Question16</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Question5</t>
-  </si>
-  <si>
-    <t>Question6</t>
-  </si>
-  <si>
     <t>Question7</t>
-  </si>
-  <si>
-    <t>Question8</t>
   </si>
   <si>
     <t>jh</t>
@@ -497,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +558,23 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,67 +585,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
         <v>333456</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2">
+      <c r="AB2">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -653,67 +671,82 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>8415</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
       <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3">
-        <v>154</v>
+        <v>28</v>
+      </c>
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3">
+        <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -730,90 +763,34 @@
         <v>3</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
         <v>24</v>
       </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" t="s">
-        <v>25</v>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliormor/Desktop/Joy/Stark_Industries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0460EA1-B828-F347-9521-CBF34D85D6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -40,15 +46,6 @@
     <t>Unnamed: 0.1.1.1.1.1.1.1</t>
   </si>
   <si>
-    <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -100,31 +97,52 @@
     <t>25/12/2019</t>
   </si>
   <si>
-    <t>NaN</t>
+    <t>Tue Jan 14 18:25:14 2020</t>
   </si>
   <si>
     <t>Question1</t>
   </si>
   <si>
+    <t>Question2</t>
+  </si>
+  <si>
     <t>Answer1</t>
   </si>
   <si>
+    <t>Answer2</t>
+  </si>
+  <si>
     <t>Question3</t>
   </si>
   <si>
+    <t>Question4</t>
+  </si>
+  <si>
     <t>Answer3</t>
   </si>
   <si>
+    <t>Answer4</t>
+  </si>
+  <si>
     <t>Question15</t>
   </si>
   <si>
+    <t>Question16</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>Question5</t>
   </si>
   <si>
-    <t>Answer2</t>
+    <t>Question6</t>
   </si>
   <si>
     <t>Question7</t>
+  </si>
+  <si>
+    <t>Question8</t>
   </si>
   <si>
     <t>jh</t>
@@ -133,12 +151,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -197,11 +215,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +301,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +353,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,14 +546,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,17 +631,8 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -591,76 +649,67 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
+        <v>333456</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>333456</v>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="Y2">
+        <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,84 +726,75 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>8415</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="C4">
         <v>3</v>
-      </c>
-      <c r="N3">
-        <v>8415</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -763,33 +803,24 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>24</v>
-      </c>
-      <c r="P4">
         <v>0</v>
       </c>
     </row>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotem\Documents\לימודים\שנה ב\Stark_Industries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD6E233-1A20-40ED-B63D-EE25346CE69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Index</t>
   </si>
@@ -80,6 +74,9 @@
   </si>
   <si>
     <t>Tue Jan 14 18:32:58 2020</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>Question1</t>
@@ -145,11 +142,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +210,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -267,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,27 +288,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,24 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,288 +497,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>123456789</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>43816</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>23456</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>333456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Q6">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2">
-        <v>80</v>
-      </c>
-      <c r="P2">
-        <v>5252</v>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>23456</v>
-      </c>
-      <c r="D3">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>333456</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8415</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6">
-        <v>111111111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,26 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotem\Documents\לימודים\שנה ב\Stark_Industries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD6E233-1A20-40ED-B63D-EE25346CE69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+  </si>
   <si>
     <t>Index</t>
   </si>
@@ -70,10 +94,7 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>25/12/2019</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:25:14 2020</t>
+    <t>NaN</t>
   </si>
   <si>
     <t>Tue Jan 14 18:34:44 2020</t>
@@ -85,71 +106,59 @@
     <t>Question1</t>
   </si>
   <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>Question8</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>Question2</t>
   </si>
   <si>
-    <t>Question7</t>
-  </si>
-  <si>
-    <t>Question8</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Answer3</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question13</t>
+  </si>
+  <si>
+    <t>Question9</t>
   </si>
   <si>
     <t>Answer1</t>
   </si>
   <si>
+    <t>Question11</t>
+  </si>
+  <si>
+    <t>Question6</t>
+  </si>
+  <si>
     <t>Answer2</t>
   </si>
   <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Answer3</t>
-  </si>
-  <si>
-    <t>Answer4</t>
-  </si>
-  <si>
-    <t>Question15</t>
-  </si>
-  <si>
-    <t>Question16</t>
-  </si>
-  <si>
-    <t>Question13</t>
-  </si>
-  <si>
-    <t>Question9</t>
-  </si>
-  <si>
     <t>Question5</t>
   </si>
   <si>
-    <t>Question6</t>
-  </si>
-  <si>
-    <t>Question11</t>
-  </si>
-  <si>
     <t>Question10</t>
-  </si>
-  <si>
-    <t>jh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +222,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -267,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,27 +300,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,24 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,288 +509,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:27">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>123456789</v>
       </c>
-      <c r="C2" s="2">
+      <c r="N2" s="2">
         <v>43816</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2">
+        <v>80</v>
+      </c>
+      <c r="AA2">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>23456</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>333456</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>8415</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2">
-        <v>80</v>
-      </c>
-      <c r="P2">
-        <v>5252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>23456</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>333456</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8415</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="R7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6">
-        <v>111111111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit9530\Desktop\17.1\Stark_Industries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7429278-8067-40E3-B22F-17F3A045A40E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7200" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -94,71 +100,104 @@
     <t>Parent</t>
   </si>
   <si>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Answer3</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Answer1</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Answer2</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
     <t>NaN</t>
   </si>
   <si>
     <t>Tue Jan 14 18:34:44 2020</t>
   </si>
   <si>
+    <t>My parents are telling me to clean my room, what to do?</t>
+  </si>
+  <si>
+    <t>Tell them I'll do it later</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What will you do when you are on public transport and with you are foreign people?</t>
+  </si>
+  <si>
+    <t>What will you do when you stand in line and there is a client standing in front of you?</t>
+  </si>
+  <si>
     <t>Tue Jan 14 18:32:58 2020</t>
   </si>
   <si>
-    <t>Question1</t>
-  </si>
-  <si>
-    <t>Question7</t>
-  </si>
-  <si>
-    <t>Question8</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Question2</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Answer3</t>
-  </si>
-  <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Question13</t>
-  </si>
-  <si>
-    <t>Question9</t>
-  </si>
-  <si>
-    <t>Answer1</t>
-  </si>
-  <si>
-    <t>Question11</t>
-  </si>
-  <si>
-    <t>Question6</t>
-  </si>
-  <si>
-    <t>Answer2</t>
-  </si>
-  <si>
-    <t>Question5</t>
-  </si>
-  <si>
-    <t>Question10</t>
+    <t>What will you do when you play with friends in the circle?</t>
+  </si>
+  <si>
+    <t>Be respectful and don't hurt your friend</t>
+  </si>
+  <si>
+    <t>Bypass</t>
+  </si>
+  <si>
+    <t>What will you do when you are in a relative's house?</t>
+  </si>
+  <si>
+    <t>Be polite and respect your relatives</t>
+  </si>
+  <si>
+    <t>What will you do when you're in the show?</t>
+  </si>
+  <si>
+    <t>Keep proper language about culture and respect for others</t>
+  </si>
+  <si>
+    <t>Fri Jan 17 23:15:12 2020</t>
+  </si>
+  <si>
+    <t>My sister is annoying me because she wants to play with me, what to do?</t>
+  </si>
+  <si>
+    <t>Tell mom or dad</t>
+  </si>
+  <si>
+    <t>Sit where you write on the card and act polite and keep quiet</t>
+  </si>
+  <si>
+    <t>Wait politely</t>
+  </si>
+  <si>
+    <t>Shout and rant</t>
+  </si>
+  <si>
+    <t>Fri Jan 17 23:27:00 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +261,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -509,14 +556,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -643,34 +698,34 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z2">
         <v>80</v>
@@ -679,7 +734,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -726,7 +781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -767,49 +822,49 @@
         <v>333456</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AA4">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -856,7 +911,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -897,31 +952,46 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
         <v>27</v>
       </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" t="s">
-        <v>34</v>
-      </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="U6" t="s">
+        <v>35</v>
       </c>
       <c r="V6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" t="s">
         <v>40</v>
       </c>
-      <c r="X6" t="s">
-        <v>36</v>
+      <c r="Y6" t="s">
+        <v>35</v>
       </c>
       <c r="AA6">
         <v>111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -962,25 +1032,98 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="U7" t="s">
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
       </c>
       <c r="X7" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>101198751</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -1,174 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Last_Login</t>
-  </si>
-  <si>
-    <t>Login_count</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>Last grade</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Question1</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Question2</t>
-  </si>
-  <si>
-    <t>Answer3</t>
-  </si>
-  <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Answer1</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Answer2</t>
-  </si>
-  <si>
-    <t>Question5</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:34:44 2020</t>
-  </si>
-  <si>
-    <t>My parents are telling me to clean my room, what to do?</t>
-  </si>
-  <si>
-    <t>Tell them I'll do it later</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What will you do when you are on public transport and with you are foreign people?</t>
-  </si>
-  <si>
-    <t>What will you do when you stand in line and there is a client standing in front of you?</t>
-  </si>
-  <si>
-    <t>Tue Jan 14 18:32:58 2020</t>
-  </si>
-  <si>
-    <t>What will you do when you play with friends in the circle?</t>
-  </si>
-  <si>
-    <t>Be respectful and don't hurt your friend</t>
-  </si>
-  <si>
-    <t>Bypass</t>
-  </si>
-  <si>
-    <t>What will you do when you are in a relative's house?</t>
-  </si>
-  <si>
-    <t>Be polite and respect your relatives</t>
-  </si>
-  <si>
-    <t>What will you do when you're in the show?</t>
-  </si>
-  <si>
-    <t>Keep proper language about culture and respect for others</t>
-  </si>
-  <si>
-    <t>Sat Jan 18 11:49:27 2020</t>
-  </si>
-  <si>
-    <t>My sister is annoying me because she wants to play with me, what to do?</t>
-  </si>
-  <si>
-    <t>Mom is calling me for dinner while I'm watching my favorite tv show, what to do?</t>
-  </si>
-  <si>
-    <t>A friend from class is crying, what to do?</t>
-  </si>
-  <si>
-    <t>Sat Jan 18 11:54:40 2020</t>
-  </si>
-  <si>
-    <t>Sat Jan 18 11:58:52 2020</t>
-  </si>
-  <si>
-    <t>An uncle comes to the house and he has gained weight, what do I do?</t>
-  </si>
-  <si>
-    <t>Tell him he looks fat</t>
-  </si>
-  <si>
-    <t>Play with her if I can because she wants my attention</t>
-  </si>
-  <si>
-    <t>Ignore her</t>
-  </si>
-  <si>
-    <t>My brother is hugging me but I don't like hugs, what do I do?</t>
-  </si>
-  <si>
-    <t>Sat Jan 18 12:21:43 2020</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,71 +373,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="9.81640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="21.81640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="10"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.85546875"/>
+    <col customWidth="1" max="3" min="3" width="23.42578125"/>
+    <col customWidth="1" max="4" min="4" width="12.5703125"/>
+    <col customWidth="1" max="5" min="5" width="15.7109375"/>
+    <col customWidth="1" max="6" min="6" width="12.28515625"/>
+    <col customWidth="1" max="7" min="7" width="11"/>
+    <col customWidth="1" max="8" min="8" width="12.85546875"/>
+    <col customWidth="1" max="9" min="9" width="13.5703125"/>
+    <col customWidth="1" max="10" min="10" width="12.85546875"/>
+    <col customWidth="1" max="11" min="11" width="13.85546875"/>
+    <col customWidth="1" max="12" min="12" width="14.5703125"/>
+    <col customWidth="1" max="13" min="13" width="15.42578125"/>
+    <col customWidth="1" max="14" min="14" width="21.85546875"/>
+    <col customWidth="1" max="15" min="15" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" width="14.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Login</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Login_count</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Last grade</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
@@ -608,35 +493,55 @@
       <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Question1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Question2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Answer3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Question3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Answer1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Question4</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Answer2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Question5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Answer3</t>
+        </is>
       </c>
       <c r="O2" t="n">
         <v>80</v>
@@ -645,7 +550,7 @@
         <v>111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
@@ -659,7 +564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
@@ -673,7 +578,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
@@ -687,241 +592,501 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tue Jan 14 18:34:44 2020</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>My parents are telling me to clean my room, what to do?</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tell them I'll do it later</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Question4</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Question1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> What will you do when you are on public transport and with you are foreign people?</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>What will you do when you stand in line and there is a client standing in front of you?</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
       <c r="P6" t="n">
         <v>111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tue Jan 14 18:32:58 2020</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>What will you do when you play with friends in the circle?</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Be respectful and don't hurt your friend</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>What will you do when you stand in line and there is a client standing in front of you?</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bypass</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>What will you do when you are in a relative's house?</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Be polite and respect your relatives</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>What will you do when you're in the show?</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> What will you do when you are on public transport and with you are foreign people?</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Keep proper language about culture and respect for others</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>222</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 11:49:27 2020</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>My parents are telling me to clean my room, what to do?</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>My sister is annoying me because she wants to play with me, what to do?</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Mom is calling me for dinner while I'm watching my favorite tv show, what to do?</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>A friend from class is crying, what to do?</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Question4</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>22222</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 11:54:40 2020</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Question4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>My sister is annoying me because she wants to play with me, what to do?</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A friend from class is crying, what to do?</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>My parents are telling me to clean my room, what to do?</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Mom is calling me for dinner while I'm watching my favorite tv show, what to do?</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>111111111</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 11:58:52 2020</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>An uncle comes to the house and he has gained weight, what do I do?</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tell him he looks fat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>My sister is annoying me because she wants to play with me, what to do?</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Play with her if I can because she wants my attention</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>My parents are telling me to clean my room, what to do?</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Tell them I'll do it later</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Mom is calling me for dinner while I'm watching my favorite tv show, what to do?</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Ignore her</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>My brother is hugging me but I don't like hugs, what do I do?</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>444</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 12:21:43 2020</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 16:14:58 2020</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 17:18:52 2020</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mom is calling me for dinner while I'm watching my favorite tv show, what to do?</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>An uncle comes to the house and he has gained weight, what do I do?</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>My parents are telling me to clean my room, what to do?</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>My sister is annoying me because she wants to play with me, what to do?</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>My brother is hugging me but I don't like hugs, what do I do?</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>311369318</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 17:03:34 2020</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Question1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>An uncle comes to the house and he has gained weight, what do I do?</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Say nothing because it's not polite</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>My sister is annoying me because she wants to play with me, what to do?</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Yell at her</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>My brother is hugging me but I don't like hugs, what do I do?</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Tell him that I know he means well but I don't like it</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Question2</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Answer1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Player_db.xlsx
+++ b/Player_db.xlsx
@@ -379,7 +379,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="2" min="2" width="9.85546875"/>
     <col customWidth="1" max="3" min="3" width="23.42578125"/>
@@ -974,53 +974,56 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mom is calling me for dinner while I'm watching my favorite tv show, what to do?</t>
+          <t>An uncle comes to the house and he has gained weight, what do I do?</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Tell him he looks fat</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>An uncle comes to the house and he has gained weight, what do I do?</t>
+          <t>Question4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Answer1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>My parents are telling me to clean my room, what to do?</t>
+          <t>A friend from class is crying, what to do?</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>I don't know why she's crying so I'll leave her alone</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>My sister is annoying me because she wants to play with me, what to do?</t>
+          <t xml:space="preserve"> What will you do when you are on public transport and with you are foreign people?</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Get wild and go wild</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>My brother is hugging me but I don't like hugs, what do I do?</t>
+          <t>What will you do when you stand in line and there is a client standing in front of you?</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
+          <t>Don't talk nicely</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1040,53 +1043,56 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Question1</t>
+          <t>Question4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>Answer1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>What will you do when you're in the show?</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Get someone else in the front row</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>What will you do when you play with friends in the circle?</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Be respectful and don't hurt your friend</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>What will you do when you stand in line and there is a client standing in front of you?</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wait politely</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>An uncle comes to the house and he has gained weight, what do I do?</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Say nothing because it's not polite</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>My sister is annoying me because she wants to play with me, what to do?</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Yell at her</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>My brother is hugging me but I don't like hugs, what do I do?</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Tell him that I know he means well but I don't like it</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Question2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Answer1</t>
-        </is>
+      <c r="O14" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
